--- a/Steve/Serine C1 analytical.xlsx
+++ b/Steve/Serine C1 analytical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Van Dien\Documents\CfB\Training class\Serine data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A30C71-D33F-409A-A2FF-7D9238D0075B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78BFC60-4CB0-4DD3-AFA3-139A9EE6D064}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{2CF512C7-2DC5-4227-AB87-F9B40EF9B488}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9360" xr2:uid="{2CF512C7-2DC5-4227-AB87-F9B40EF9B488}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
   <si>
     <t>Time</t>
   </si>
@@ -641,23 +641,23 @@
   <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AT19" sqref="AT19"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="15" width="12.7109375" style="30" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="31" customWidth="1"/>
+    <col min="2" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="15" width="12.6640625" style="30" customWidth="1"/>
+    <col min="16" max="17" width="12.6640625" style="31" customWidth="1"/>
     <col min="18" max="18" width="17" style="13" customWidth="1"/>
-    <col min="19" max="27" width="12.7109375" style="13" customWidth="1"/>
-    <col min="28" max="60" width="12.7109375" customWidth="1"/>
+    <col min="19" max="27" width="12.6640625" style="13" customWidth="1"/>
+    <col min="28" max="60" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +736,7 @@
       <c r="BC1" s="32"/>
       <c r="BD1" s="32"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
@@ -807,7 +807,7 @@
       <c r="BC2" s="32"/>
       <c r="BD2" s="32"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
@@ -964,7 +964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>8</v>
@@ -1095,7 +1095,7 @@
       <c r="BC4" s="18"/>
       <c r="BD4" s="19"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1149,7 +1149,7 @@
       <c r="BC5" s="32"/>
       <c r="BD5" s="32"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>0</v>
       </c>
@@ -1184,18 +1184,19 @@
         <v>0</v>
       </c>
       <c r="L6" s="20">
-        <v>1</v>
+        <f>1-0.5</f>
+        <v>0.5</v>
       </c>
       <c r="M6" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N6" s="15">
         <f t="shared" ref="N6" si="0">L6*(M6-E6)/100</f>
-        <v>0.1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O6" s="15">
         <f t="shared" ref="O6" si="1">L6*C6/100</f>
-        <v>1.8392384957429116E-5</v>
+        <v>9.196192478714558E-6</v>
       </c>
       <c r="P6" s="16">
         <v>0</v>
@@ -1205,11 +1206,11 @@
       </c>
       <c r="R6" s="21">
         <f>(M6-B6*$L6)*1000/B$19</f>
-        <v>0.69861513025815114</v>
+        <v>0.34930756512907557</v>
       </c>
       <c r="S6" s="21">
         <f>C6*$L6*1000/C$19</f>
-        <v>2.0900437451623996E-2</v>
+        <v>1.0450218725811998E-2</v>
       </c>
       <c r="T6" s="21">
         <f t="shared" ref="T6:Z16" si="2">D6*$L6*1000/D$19</f>
@@ -1221,7 +1222,7 @@
       </c>
       <c r="V6" s="21">
         <f t="shared" si="2"/>
-        <v>5.3191640883804889E-2</v>
+        <v>2.6595820441902444E-2</v>
       </c>
       <c r="W6" s="21">
         <f t="shared" si="2"/>
@@ -1245,11 +1246,11 @@
       </c>
       <c r="AC6" s="24">
         <f>R6*B$20</f>
-        <v>4.1916907815489068</v>
+        <v>2.0958453907744534</v>
       </c>
       <c r="AD6" s="24">
         <f>Q6+S6*C$20+T6*D$20+U6*E$20+V6*F$20+W6*G$20+X6*H$20+Y6*I$20+Z6*J$20+42*AA6</f>
-        <v>0.16908459412248178</v>
+        <v>8.454229706124089E-2</v>
       </c>
       <c r="AF6" s="29"/>
       <c r="AG6" s="29"/>
@@ -1276,7 +1277,7 @@
       <c r="BC6" s="32"/>
       <c r="BD6" s="32"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>3</v>
       </c>
@@ -1311,10 +1312,11 @@
         <v>0.86</v>
       </c>
       <c r="L7" s="20">
-        <v>1.0009999999999999</v>
+        <f>1.001-0.5</f>
+        <v>0.50099999999999989</v>
       </c>
       <c r="M7" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N7" s="15">
         <v>3.7195471365592541</v>
@@ -1330,27 +1332,27 @@
       </c>
       <c r="R7" s="21">
         <f t="shared" ref="R7:R16" si="3">(M7-B7*$L7)*1000/B$19</f>
-        <v>12.10915718139729</v>
+        <v>6.0328770930092581</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" ref="S7:S16" si="4">C7*$L7*1000/C$19</f>
-        <v>1.4935985227475097E-2</v>
+        <v>7.4754531458192022E-3</v>
       </c>
       <c r="T7" s="21">
         <f t="shared" si="2"/>
-        <v>1.8420858026256643</v>
+        <v>0.92196302409136632</v>
       </c>
       <c r="U7" s="21">
         <f t="shared" si="2"/>
-        <v>3.0014146721845578</v>
+        <v>1.502206544220243</v>
       </c>
       <c r="V7" s="21">
         <f t="shared" si="2"/>
-        <v>12.48516029998105</v>
+        <v>6.248816493796709</v>
       </c>
       <c r="W7" s="21">
         <f t="shared" si="2"/>
-        <v>0.70146099722045963</v>
+        <v>0.35108087872872146</v>
       </c>
       <c r="X7" s="21">
         <f t="shared" si="2"/>
@@ -1358,7 +1360,7 @@
       </c>
       <c r="Y7" s="21">
         <f t="shared" si="2"/>
-        <v>1.3249787593862592</v>
+        <v>0.44210080483018022</v>
       </c>
       <c r="Z7" s="21">
         <f t="shared" si="2"/>
@@ -1366,15 +1368,15 @@
       </c>
       <c r="AA7" s="21">
         <f t="shared" ref="AA7:AA16" si="5">K7*L7*0.4</f>
-        <v>0.34434399999999998</v>
+        <v>0.17234399999999997</v>
       </c>
       <c r="AC7" s="24">
         <f t="shared" ref="AC7:AC16" si="6">R7*B$20</f>
-        <v>72.654943088383732</v>
+        <v>36.197262558055549</v>
       </c>
       <c r="AD7" s="24">
         <f t="shared" ref="AD7:AD16" si="7">Q7+S7*C$20+T7*D$20+U7*E$20+V7*F$20+W7*G$20+X7*H$20+Y7*I$20+Z7*J$20+42*AA7</f>
-        <v>59.426728820256656</v>
+        <v>30.295688314333709</v>
       </c>
       <c r="AF7" s="29">
         <f>(P7-P6)/($A7-$A6)</f>
@@ -1386,27 +1388,27 @@
       </c>
       <c r="AH7" s="29">
         <f t="shared" si="8"/>
-        <v>3.8035140170463797</v>
+        <v>1.8945231759600609</v>
       </c>
       <c r="AI7" s="29">
         <f t="shared" si="8"/>
-        <v>-1.9881507413829665E-3</v>
+        <v>-9.9158852666426521E-4</v>
       </c>
       <c r="AJ7" s="29">
         <f t="shared" si="8"/>
-        <v>0.61402860087522149</v>
+        <v>0.30732100803045542</v>
       </c>
       <c r="AK7" s="29">
         <f t="shared" si="8"/>
-        <v>1.0004715573948526</v>
+        <v>0.50073551474008104</v>
       </c>
       <c r="AL7" s="29">
         <f t="shared" si="8"/>
-        <v>4.1439895530324149</v>
+        <v>2.0740735577849354</v>
       </c>
       <c r="AM7" s="29">
         <f t="shared" si="8"/>
-        <v>0.23382033240681988</v>
+        <v>0.11702695957624049</v>
       </c>
       <c r="AN7" s="29">
         <f t="shared" si="8"/>
@@ -1414,7 +1416,7 @@
       </c>
       <c r="AO7" s="29">
         <f t="shared" si="8"/>
-        <v>0.44165958646208642</v>
+        <v>0.1473669349433934</v>
       </c>
       <c r="AP7" s="29">
         <f t="shared" si="8"/>
@@ -1422,39 +1424,39 @@
       </c>
       <c r="AQ7" s="29">
         <f t="shared" si="8"/>
-        <v>0.11478133333333333</v>
+        <v>5.7447999999999992E-2</v>
       </c>
       <c r="AS7" s="32">
         <f>2*AF7/($AA7+$AA6)</f>
-        <v>10.624003771741945</v>
+        <v>21.226801947133112</v>
       </c>
       <c r="AT7" s="32">
         <f t="shared" ref="AT7:BD16" si="9">2*AG7/($AA7+$AA6)</f>
-        <v>5.5691543920013418</v>
+        <v>11.127192707371945</v>
       </c>
       <c r="AU7" s="32">
         <f t="shared" si="9"/>
-        <v>22.0913622252537</v>
+        <v>21.985368518312924</v>
       </c>
       <c r="AV7" s="32">
         <f t="shared" si="9"/>
-        <v>-1.1547468469803259E-2</v>
+        <v>-1.1507084977304292E-2</v>
       </c>
       <c r="AW7" s="32">
         <f t="shared" si="9"/>
-        <v>3.5663673586600697</v>
+        <v>3.5663673586600693</v>
       </c>
       <c r="AX7" s="32">
         <f t="shared" si="9"/>
-        <v>5.810884216915948</v>
+        <v>5.8108842169159489</v>
       </c>
       <c r="AY7" s="32">
         <f t="shared" si="9"/>
-        <v>24.068893624006314</v>
+        <v>24.068996400047993</v>
       </c>
       <c r="AZ7" s="32">
         <f t="shared" si="9"/>
-        <v>1.3580624747741787</v>
+        <v>1.3580624747741785</v>
       </c>
       <c r="BA7" s="32">
         <f t="shared" si="9"/>
@@ -1462,7 +1464,7 @@
       </c>
       <c r="BB7" s="32">
         <f t="shared" si="9"/>
-        <v>2.5652230703139094</v>
+        <v>1.7101487135426057</v>
       </c>
       <c r="BC7" s="32">
         <f t="shared" si="9"/>
@@ -1473,7 +1475,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>5.3</v>
       </c>
@@ -1508,10 +1510,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L8" s="15">
-        <v>1.0029999999999999</v>
+        <f>1.003-0.5</f>
+        <v>0.50299999999999989</v>
       </c>
       <c r="M8" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N8" s="15">
         <v>11.027082974445756</v>
@@ -1527,31 +1530,31 @@
       </c>
       <c r="R8" s="21">
         <f t="shared" si="3"/>
-        <v>25.587902783797219</v>
+        <v>12.749134363825194</v>
       </c>
       <c r="S8" s="21">
         <f t="shared" si="4"/>
-        <v>2.2841381633180214E-2</v>
+        <v>1.1454850410258866E-2</v>
       </c>
       <c r="T8" s="21">
         <f t="shared" si="2"/>
-        <v>0.10900980393682438</v>
+        <v>5.4667927597430374E-2</v>
       </c>
       <c r="U8" s="21">
         <f t="shared" si="2"/>
-        <v>4.5445907857539556</v>
+        <v>2.2790918895655428</v>
       </c>
       <c r="V8" s="21">
         <f t="shared" si="2"/>
-        <v>21.777532454642309</v>
+        <v>10.921334820224407</v>
       </c>
       <c r="W8" s="21">
         <f t="shared" si="2"/>
-        <v>0.86605274473697513</v>
+        <v>0.43432156590498355</v>
       </c>
       <c r="X8" s="21">
         <f t="shared" si="2"/>
-        <v>3.8491252475464192E-2</v>
+        <v>1.9303190423886826E-2</v>
       </c>
       <c r="Y8" s="21">
         <f t="shared" si="2"/>
@@ -1563,15 +1566,15 @@
       </c>
       <c r="AA8" s="21">
         <f t="shared" si="5"/>
-        <v>0.92275999999999991</v>
+        <v>0.46275999999999984</v>
       </c>
       <c r="AC8" s="24">
         <f t="shared" si="6"/>
-        <v>153.52741670278331</v>
+        <v>76.494806182951166</v>
       </c>
       <c r="AD8" s="24">
         <f t="shared" si="7"/>
-        <v>104.74273635857372</v>
+        <v>60.253100488652876</v>
       </c>
       <c r="AF8" s="29">
         <f t="shared" ref="AF8:AF16" si="10">(P8-P7)/($A8-$A7)</f>
@@ -1583,35 +1586,35 @@
       </c>
       <c r="AH8" s="29">
         <f t="shared" si="8"/>
-        <v>5.8603241749564914</v>
+        <v>2.9201118568764941</v>
       </c>
       <c r="AI8" s="29">
         <f t="shared" si="8"/>
-        <v>3.4371288720457037E-3</v>
+        <v>1.7301727236694192E-3</v>
       </c>
       <c r="AJ8" s="29">
         <f t="shared" si="8"/>
-        <v>-0.75351130377775655</v>
+        <v>-0.37708482456258091</v>
       </c>
       <c r="AK8" s="29">
         <f t="shared" si="8"/>
-        <v>0.67094613633452083</v>
+        <v>0.33777623710665211</v>
       </c>
       <c r="AL8" s="29">
         <f t="shared" si="8"/>
-        <v>4.0401618063744609</v>
+        <v>2.0315297071424778</v>
       </c>
       <c r="AM8" s="29">
         <f t="shared" si="8"/>
-        <v>7.1561629355006748E-2</v>
+        <v>3.6191603120113956E-2</v>
       </c>
       <c r="AN8" s="29">
         <f t="shared" si="8"/>
-        <v>1.6735327163245304E-2</v>
+        <v>8.392691488646447E-3</v>
       </c>
       <c r="AO8" s="29">
         <f t="shared" si="8"/>
-        <v>-0.57607772147228664</v>
+        <v>-0.19221774123051316</v>
       </c>
       <c r="AP8" s="29">
         <f t="shared" si="8"/>
@@ -1619,47 +1622,47 @@
       </c>
       <c r="AQ8" s="29">
         <f t="shared" si="8"/>
-        <v>0.25148521739130436</v>
+        <v>0.1262678260869565</v>
       </c>
       <c r="AS8" s="32">
         <f t="shared" ref="AS8:AS16" si="11">2*AF8/($AA8+$AA7)</f>
-        <v>10.720080939091346</v>
+        <v>21.387768677643983</v>
       </c>
       <c r="AT8" s="32">
         <f t="shared" si="9"/>
-        <v>8.6606044029284952</v>
+        <v>17.278881067302851</v>
       </c>
       <c r="AU8" s="32">
         <f t="shared" si="9"/>
-        <v>9.2499497672748134</v>
+        <v>9.1956966319736448</v>
       </c>
       <c r="AV8" s="32">
         <f t="shared" si="9"/>
-        <v>5.4251724752596535E-3</v>
+        <v>5.4484705612605801E-3</v>
       </c>
       <c r="AW8" s="32">
         <f t="shared" si="9"/>
-        <v>-1.1893440534916735</v>
+        <v>-1.187474254807342</v>
       </c>
       <c r="AX8" s="32">
         <f t="shared" si="9"/>
-        <v>1.0590229946942333</v>
+        <v>1.0636879538048956</v>
       </c>
       <c r="AY8" s="32">
         <f t="shared" si="9"/>
-        <v>6.3770011086295391</v>
+        <v>6.397470987877508</v>
       </c>
       <c r="AZ8" s="32">
         <f t="shared" si="9"/>
-        <v>0.11295304782402511</v>
+        <v>0.11397063510893954</v>
       </c>
       <c r="BA8" s="32">
         <f t="shared" si="9"/>
-        <v>2.6415080629917209E-2</v>
+        <v>2.6429345394286447E-2</v>
       </c>
       <c r="BB8" s="32">
         <f t="shared" si="9"/>
-        <v>-0.90928246059090134</v>
+        <v>-0.60531107103880066</v>
       </c>
       <c r="BC8" s="32">
         <f t="shared" si="9"/>
@@ -1667,10 +1670,10 @@
       </c>
       <c r="BD8" s="32">
         <f t="shared" si="9"/>
-        <v>0.39694487175686355</v>
+        <v>0.39762881697157171</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>7.5</v>
       </c>
@@ -1705,10 +1708,11 @@
         <v>3</v>
       </c>
       <c r="L9" s="15">
-        <v>1.006</v>
+        <f>1.006-0.5</f>
+        <v>0.50600000000000001</v>
       </c>
       <c r="M9" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N9" s="15">
         <v>12.14482932367752</v>
@@ -1724,35 +1728,35 @@
       </c>
       <c r="R9" s="21">
         <f t="shared" si="3"/>
-        <v>49.193905350482382</v>
+        <v>24.577981551369202</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="4"/>
-        <v>2.0615219644745379E-2</v>
+        <v>1.0369086620518053E-2</v>
       </c>
       <c r="T9" s="21">
         <f t="shared" si="2"/>
-        <v>8.0074655512111431E-2</v>
+        <v>4.0276118975276727E-2</v>
       </c>
       <c r="U9" s="21">
         <f t="shared" si="2"/>
-        <v>6.9359575456074474</v>
+        <v>3.4886625428204452</v>
       </c>
       <c r="V9" s="21">
         <f t="shared" si="2"/>
-        <v>28.669008866838947</v>
+        <v>14.419998495646629</v>
       </c>
       <c r="W9" s="21">
         <f t="shared" si="2"/>
-        <v>1.0124236702185541</v>
+        <v>0.50923099118348747</v>
       </c>
       <c r="X9" s="21">
         <f t="shared" si="2"/>
-        <v>0.12230271692307747</v>
+        <v>6.1516078293317289E-2</v>
       </c>
       <c r="Y9" s="21">
         <f t="shared" si="2"/>
-        <v>2.4242899465286474E-2</v>
+        <v>8.1291631076441054E-3</v>
       </c>
       <c r="Z9" s="21">
         <f t="shared" si="2"/>
@@ -1760,15 +1764,15 @@
       </c>
       <c r="AA9" s="21">
         <f t="shared" si="5"/>
-        <v>1.2072000000000001</v>
+        <v>0.60720000000000007</v>
       </c>
       <c r="AC9" s="24">
         <f t="shared" si="6"/>
-        <v>295.16343210289426</v>
+        <v>147.46788930821521</v>
       </c>
       <c r="AD9" s="24">
         <f t="shared" si="7"/>
-        <v>157.53446698821048</v>
+        <v>98.885231839799076</v>
       </c>
       <c r="AF9" s="29">
         <f t="shared" si="10"/>
@@ -1780,35 +1784,35 @@
       </c>
       <c r="AH9" s="29">
         <f t="shared" si="8"/>
-        <v>10.730001166675073</v>
+        <v>5.3767487216109124</v>
       </c>
       <c r="AI9" s="29">
         <f t="shared" si="8"/>
-        <v>-1.0118918129249249E-3</v>
+        <v>-4.9352899533673298E-4</v>
       </c>
       <c r="AJ9" s="29">
         <f t="shared" si="8"/>
-        <v>-1.3152340193051341E-2</v>
+        <v>-6.5417311918880205E-3</v>
       </c>
       <c r="AK9" s="29">
         <f t="shared" si="8"/>
-        <v>1.0869848908424962</v>
+        <v>0.54980484238859195</v>
       </c>
       <c r="AL9" s="29">
         <f t="shared" si="8"/>
-        <v>3.1324892782711991</v>
+        <v>1.5903016706464643</v>
       </c>
       <c r="AM9" s="29">
         <f t="shared" si="8"/>
-        <v>6.6532238855263146E-2</v>
+        <v>3.4049738762956326E-2</v>
       </c>
       <c r="AN9" s="29">
         <f t="shared" si="8"/>
-        <v>3.8096120203460579E-2</v>
+        <v>1.9187676304286572E-2</v>
       </c>
       <c r="AO9" s="29">
         <f t="shared" si="8"/>
-        <v>1.1019499756948397E-2</v>
+        <v>3.6950741398382296E-3</v>
       </c>
       <c r="AP9" s="29">
         <f t="shared" si="8"/>
@@ -1816,47 +1820,47 @@
       </c>
       <c r="AQ9" s="29">
         <f t="shared" si="8"/>
-        <v>0.12929090909090915</v>
+        <v>6.5654545454545563E-2</v>
       </c>
       <c r="AS9" s="32">
         <f t="shared" si="11"/>
-        <v>11.384350774125656</v>
+        <v>22.662727368178885</v>
       </c>
       <c r="AT9" s="32">
         <f t="shared" si="9"/>
-        <v>10.272660185867508</v>
+        <v>20.449694651660213</v>
       </c>
       <c r="AU9" s="32">
         <f t="shared" si="9"/>
-        <v>10.075307674017422</v>
+        <v>10.050373325378356</v>
       </c>
       <c r="AV9" s="32">
         <f t="shared" si="9"/>
-        <v>-9.5015100088727007E-4</v>
+        <v>-9.2251859010941152E-4</v>
       </c>
       <c r="AW9" s="32">
         <f t="shared" si="9"/>
-        <v>-1.2349847126754812E-2</v>
+        <v>-1.2227992059306927E-2</v>
       </c>
       <c r="AX9" s="32">
         <f t="shared" si="9"/>
-        <v>1.0206622573592894</v>
+        <v>1.0277110216991139</v>
       </c>
       <c r="AY9" s="32">
         <f t="shared" si="9"/>
-        <v>2.9413597234419417</v>
+        <v>2.9726376138294222</v>
       </c>
       <c r="AZ9" s="32">
         <f t="shared" si="9"/>
-        <v>6.2472758976941482E-2</v>
+        <v>6.3646750837332844E-2</v>
       </c>
       <c r="BA9" s="32">
         <f t="shared" si="9"/>
-        <v>3.5771676654454146E-2</v>
+        <v>3.5866156312921178E-2</v>
       </c>
       <c r="BB9" s="32">
         <f t="shared" si="9"/>
-        <v>1.034714244112415E-2</v>
+        <v>6.9069388385327108E-3</v>
       </c>
       <c r="BC9" s="32">
         <f t="shared" si="9"/>
@@ -1864,10 +1868,10 @@
       </c>
       <c r="BD9" s="32">
         <f t="shared" si="9"/>
-        <v>0.12140219449276901</v>
+        <v>0.12272336433987356</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>10</v>
       </c>
@@ -1902,10 +1906,11 @@
         <v>8</v>
       </c>
       <c r="L10" s="15">
-        <v>1.014</v>
+        <f>1.014-0.5</f>
+        <v>0.51400000000000001</v>
       </c>
       <c r="M10" s="15">
-        <v>14.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N10" s="15">
         <v>12.720420042557381</v>
@@ -1921,11 +1926,11 @@
       </c>
       <c r="R10" s="21">
         <f t="shared" si="3"/>
-        <v>76.649062973549661</v>
+        <v>49.975735844361246</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="4"/>
-        <v>3.4040243711318613E-2</v>
+        <v>1.7255113676151644E-2</v>
       </c>
       <c r="T10" s="21">
         <f t="shared" si="2"/>
@@ -1933,39 +1938,39 @@
       </c>
       <c r="U10" s="21">
         <f t="shared" si="2"/>
-        <v>4.8804067919133081</v>
+        <v>2.4738945671039847</v>
       </c>
       <c r="V10" s="21">
         <f t="shared" si="2"/>
-        <v>10.410238351158972</v>
+        <v>5.2769847263271323</v>
       </c>
       <c r="W10" s="21">
         <f t="shared" si="2"/>
-        <v>2.3656756040950024</v>
+        <v>1.1991688959613722</v>
       </c>
       <c r="X10" s="21">
         <f t="shared" si="2"/>
-        <v>0.16058443720694771</v>
+        <v>8.1400789669005047E-2</v>
       </c>
       <c r="Y10" s="21">
         <f t="shared" si="2"/>
-        <v>2.0564504959723577</v>
+        <v>0.69494776786968548</v>
       </c>
       <c r="Z10" s="21">
         <f t="shared" si="2"/>
-        <v>19.797142857142855</v>
+        <v>10.035238095238093</v>
       </c>
       <c r="AA10" s="21">
         <f t="shared" si="5"/>
-        <v>3.2448000000000001</v>
+        <v>1.6448</v>
       </c>
       <c r="AC10" s="24">
         <f t="shared" si="6"/>
-        <v>459.89437784129797</v>
+        <v>299.85441506616746</v>
       </c>
       <c r="AD10" s="24">
         <f t="shared" si="7"/>
-        <v>294.18489240092896</v>
+        <v>176.88004433180646</v>
       </c>
       <c r="AF10" s="29">
         <f t="shared" si="10"/>
@@ -1977,94 +1982,94 @@
       </c>
       <c r="AH10" s="29">
         <f t="shared" si="8"/>
-        <v>10.982063049226912</v>
+        <v>10.159101717196817</v>
       </c>
       <c r="AI10" s="29">
         <f t="shared" si="8"/>
-        <v>5.3700096266292938E-3</v>
+        <v>2.7544108222534365E-3</v>
       </c>
       <c r="AJ10" s="29">
         <f t="shared" si="8"/>
-        <v>-3.2029862204844571E-2</v>
+        <v>-1.6110447590110689E-2</v>
       </c>
       <c r="AK10" s="29">
         <f t="shared" si="8"/>
-        <v>-0.82222030147765568</v>
+        <v>-0.40590719028658417</v>
       </c>
       <c r="AL10" s="29">
         <f t="shared" si="8"/>
-        <v>-7.3035082062719905</v>
+        <v>-3.6572055077277987</v>
       </c>
       <c r="AM10" s="29">
         <f t="shared" si="8"/>
-        <v>0.54130077355057937</v>
+        <v>0.2759751619111539</v>
       </c>
       <c r="AN10" s="29">
         <f t="shared" si="8"/>
-        <v>1.5312688113548096E-2</v>
+        <v>7.9538845502751029E-3</v>
       </c>
       <c r="AO10" s="29">
         <f t="shared" si="8"/>
-        <v>0.81288303860282851</v>
+        <v>0.27472744190481657</v>
       </c>
       <c r="AP10" s="29">
         <f t="shared" si="8"/>
-        <v>7.9188571428571422</v>
+        <v>4.0140952380952371</v>
       </c>
       <c r="AQ10" s="29">
         <f t="shared" si="8"/>
-        <v>0.8150400000000001</v>
+        <v>0.41503999999999996</v>
       </c>
       <c r="AS10" s="32">
         <f t="shared" si="11"/>
-        <v>4.0475624797022283</v>
+        <v>8.0016643692869973</v>
       </c>
       <c r="AT10" s="32">
         <f t="shared" si="9"/>
-        <v>3.5120307351798838</v>
+        <v>6.9429666221229311</v>
       </c>
       <c r="AU10" s="32">
         <f t="shared" si="9"/>
-        <v>4.9335413518539593</v>
+        <v>9.0222928216667988</v>
       </c>
       <c r="AV10" s="32">
         <f t="shared" si="9"/>
-        <v>2.4124032464641933E-3</v>
+        <v>2.4461907835288065E-3</v>
       </c>
       <c r="AW10" s="32">
         <f t="shared" si="9"/>
-        <v>-1.4388976731736105E-2</v>
+        <v>-1.4307679920169349E-2</v>
       </c>
       <c r="AX10" s="32">
         <f t="shared" si="9"/>
-        <v>-0.36937120461709599</v>
+        <v>-0.36048595940193973</v>
       </c>
       <c r="AY10" s="32">
         <f t="shared" si="9"/>
-        <v>-3.281000991137462</v>
+        <v>-3.2479622626357001</v>
       </c>
       <c r="AZ10" s="32">
         <f t="shared" si="9"/>
-        <v>0.2431719557729467</v>
+        <v>0.2450933942372592</v>
       </c>
       <c r="BA10" s="32">
         <f t="shared" si="9"/>
-        <v>6.8790153250440685E-3</v>
+        <v>7.0638406307949398E-3</v>
       </c>
       <c r="BB10" s="32">
         <f t="shared" si="9"/>
-        <v>0.36517656720702091</v>
+        <v>0.24398529476449071</v>
       </c>
       <c r="BC10" s="32">
         <f t="shared" si="9"/>
-        <v>3.5574380695674495</v>
+        <v>3.5649158420028746</v>
       </c>
       <c r="BD10" s="32">
         <f t="shared" si="9"/>
-        <v>0.36614555256064696</v>
+        <v>0.3685968028419182</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>22.5</v>
       </c>
@@ -2099,10 +2104,11 @@
         <v>10.75</v>
       </c>
       <c r="L11" s="15">
-        <v>1.0960000000000001</v>
+        <f>1.096-0.5</f>
+        <v>0.59600000000000009</v>
       </c>
       <c r="M11" s="15">
-        <v>45.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="N11" s="15">
         <v>32.083205858302009</v>
@@ -2118,11 +2124,11 @@
       </c>
       <c r="R11" s="21">
         <f t="shared" si="3"/>
-        <v>193.06953656550436</v>
+        <v>193.03781367978158</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="4"/>
-        <v>5.2750051558349215E-3</v>
+        <v>2.8685247015306694E-3</v>
       </c>
       <c r="T11" s="21">
         <f t="shared" si="2"/>
@@ -2130,39 +2136,39 @@
       </c>
       <c r="U11" s="21">
         <f t="shared" si="2"/>
-        <v>11.892535974570007</v>
+        <v>6.4671089788720115</v>
       </c>
       <c r="V11" s="21">
         <f t="shared" si="2"/>
-        <v>35.329844643194505</v>
+        <v>19.212214787722559</v>
       </c>
       <c r="W11" s="21">
         <f t="shared" si="2"/>
-        <v>2.9717170602549174</v>
+        <v>1.6160067225473824</v>
       </c>
       <c r="X11" s="21">
         <f t="shared" si="2"/>
-        <v>2.6359056446824791</v>
+        <v>1.4333939454660196</v>
       </c>
       <c r="Y11" s="21">
         <f t="shared" si="2"/>
-        <v>83.07274625133492</v>
+        <v>30.116397059486385</v>
       </c>
       <c r="Z11" s="21">
         <f t="shared" si="2"/>
-        <v>139.03542857142858</v>
+        <v>75.606857142857152</v>
       </c>
       <c r="AA11" s="21">
         <f t="shared" si="5"/>
-        <v>4.7128000000000005</v>
+        <v>2.5628000000000006</v>
       </c>
       <c r="AC11" s="24">
         <f t="shared" si="6"/>
-        <v>1158.4172193930262</v>
+        <v>1158.2268820786894</v>
       </c>
       <c r="AD11" s="24">
         <f t="shared" si="7"/>
-        <v>1283.8781136562905</v>
+        <v>746.27762898289643</v>
       </c>
       <c r="AF11" s="29">
         <f t="shared" si="10"/>
@@ -2174,11 +2180,11 @@
       </c>
       <c r="AH11" s="29">
         <f t="shared" si="8"/>
-        <v>9.3136378873563768</v>
+        <v>11.444966226833627</v>
       </c>
       <c r="AI11" s="29">
         <f t="shared" si="8"/>
-        <v>-2.3012190844386954E-3</v>
+        <v>-1.150927117969678E-3</v>
       </c>
       <c r="AJ11" s="29">
         <f t="shared" si="8"/>
@@ -2186,47 +2192,47 @@
       </c>
       <c r="AK11" s="29">
         <f t="shared" si="8"/>
-        <v>0.56097033461253598</v>
+        <v>0.31945715294144217</v>
       </c>
       <c r="AL11" s="29">
         <f t="shared" si="8"/>
-        <v>1.9935685033628425</v>
+        <v>1.1148184049116341</v>
       </c>
       <c r="AM11" s="29">
         <f t="shared" si="8"/>
-        <v>4.8483316492793201E-2</v>
+        <v>3.3347026126880813E-2</v>
       </c>
       <c r="AN11" s="29">
         <f t="shared" si="8"/>
-        <v>0.19802569659804253</v>
+        <v>0.10815945246376117</v>
       </c>
       <c r="AO11" s="29">
         <f t="shared" si="8"/>
-        <v>6.4813036604290053</v>
+        <v>2.3537159433293358</v>
       </c>
       <c r="AP11" s="29">
         <f t="shared" si="8"/>
-        <v>9.5390628571428575</v>
+        <v>5.2457295238095254</v>
       </c>
       <c r="AQ11" s="29">
         <f t="shared" si="8"/>
-        <v>0.11744000000000003</v>
+        <v>7.3440000000000047E-2</v>
       </c>
       <c r="AS11" s="32">
         <f t="shared" si="11"/>
-        <v>4.1705853663513777</v>
+        <v>7.8875962808436437</v>
       </c>
       <c r="AT11" s="32">
         <f t="shared" si="9"/>
-        <v>3.5865842424403507</v>
+        <v>6.7831074169700853</v>
       </c>
       <c r="AU11" s="32">
         <f t="shared" si="9"/>
-        <v>2.3408157955555384</v>
+        <v>5.4401398549451576</v>
       </c>
       <c r="AV11" s="32">
         <f t="shared" si="9"/>
-        <v>-5.7837013281358579E-4</v>
+        <v>-5.4707059509919082E-4</v>
       </c>
       <c r="AW11" s="32">
         <f t="shared" si="9"/>
@@ -2234,34 +2240,34 @@
       </c>
       <c r="AX11" s="32">
         <f t="shared" si="9"/>
-        <v>0.14098982975081328</v>
+        <v>0.15184768178602628</v>
       </c>
       <c r="AY11" s="32">
         <f t="shared" si="9"/>
-        <v>0.50104767853695642</v>
+        <v>0.52990702771728959</v>
       </c>
       <c r="AZ11" s="32">
         <f t="shared" si="9"/>
-        <v>1.2185411805768874E-2</v>
+        <v>1.5850853753627152E-2</v>
       </c>
       <c r="BA11" s="32">
         <f t="shared" si="9"/>
-        <v>4.9770206242596385E-2</v>
+        <v>5.1411470892556869E-2</v>
       </c>
       <c r="BB11" s="32">
         <f t="shared" si="9"/>
-        <v>1.6289593999268634</v>
+        <v>1.1187926339620378</v>
       </c>
       <c r="BC11" s="32">
         <f t="shared" si="9"/>
-        <v>2.3974723175688286</v>
+        <v>2.4934544746694192</v>
       </c>
       <c r="BD11" s="32">
         <f t="shared" si="9"/>
-        <v>2.9516437116718613E-2</v>
+        <v>3.4908261241562898E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>27</v>
       </c>
@@ -2296,7 +2302,8 @@
         <v>23.25</v>
       </c>
       <c r="L12" s="15">
-        <v>1.1399999999999999</v>
+        <f>1.14-0.5</f>
+        <v>0.6399999999999999</v>
       </c>
       <c r="M12" s="15">
         <v>60.4</v>
@@ -2315,11 +2322,11 @@
       </c>
       <c r="R12" s="21">
         <f t="shared" si="3"/>
-        <v>279.13964774956895</v>
+        <v>303.88346696272095</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="4"/>
-        <v>0.22082309487367124</v>
+        <v>0.12397086027995577</v>
       </c>
       <c r="T12" s="21">
         <f t="shared" si="2"/>
@@ -2327,39 +2334,39 @@
       </c>
       <c r="U12" s="21">
         <f t="shared" si="2"/>
-        <v>2.6397804502449409</v>
+        <v>1.4819820071550545</v>
       </c>
       <c r="V12" s="21">
         <f t="shared" si="2"/>
-        <v>66.507317621063407</v>
+        <v>37.337441471474193</v>
       </c>
       <c r="W12" s="21">
         <f t="shared" si="2"/>
-        <v>9.4157767240777179</v>
+        <v>5.2860500907102974</v>
       </c>
       <c r="X12" s="21">
         <f t="shared" si="2"/>
-        <v>3.2749092658557255</v>
+        <v>1.8385455527611092</v>
       </c>
       <c r="Y12" s="21">
         <f t="shared" si="2"/>
-        <v>103.23399539574268</v>
+        <v>38.637284826476794</v>
       </c>
       <c r="Z12" s="21">
         <f t="shared" si="2"/>
-        <v>210.19428571428566</v>
+        <v>118.00380952380951</v>
       </c>
       <c r="AA12" s="21">
         <f t="shared" si="5"/>
-        <v>10.602</v>
+        <v>5.9519999999999991</v>
       </c>
       <c r="AC12" s="24">
         <f t="shared" si="6"/>
-        <v>1674.8378864974138</v>
+        <v>1823.3008017763257</v>
       </c>
       <c r="AD12" s="24">
         <f t="shared" si="7"/>
-        <v>2037.0235899088952</v>
+        <v>1232.9723034952403</v>
       </c>
       <c r="AF12" s="29">
         <f t="shared" si="10"/>
@@ -2371,11 +2378,11 @@
       </c>
       <c r="AH12" s="29">
         <f t="shared" si="8"/>
-        <v>19.126691374236575</v>
+        <v>24.63236739620875</v>
       </c>
       <c r="AI12" s="29">
         <f t="shared" si="8"/>
-        <v>4.7899575492852516E-2</v>
+        <v>2.6911630128538911E-2</v>
       </c>
       <c r="AJ12" s="29">
         <f t="shared" si="8"/>
@@ -2383,47 +2390,47 @@
       </c>
       <c r="AK12" s="29">
         <f t="shared" si="8"/>
-        <v>-2.0561678942944592</v>
+        <v>-1.1078059937148792</v>
       </c>
       <c r="AL12" s="29">
         <f t="shared" si="8"/>
-        <v>6.9283273284153113</v>
+        <v>4.0278281519448074</v>
       </c>
       <c r="AM12" s="29">
         <f t="shared" si="8"/>
-        <v>1.4320132586272889</v>
+        <v>0.81556519292509222</v>
       </c>
       <c r="AN12" s="29">
         <f t="shared" si="8"/>
-        <v>0.14200080470516585</v>
+        <v>9.0033690510019915E-2</v>
       </c>
       <c r="AO12" s="29">
         <f t="shared" si="8"/>
-        <v>4.4802775876461691</v>
+        <v>1.8935306148867577</v>
       </c>
       <c r="AP12" s="29">
         <f t="shared" si="8"/>
-        <v>15.81307936507935</v>
+        <v>9.4215449735449681</v>
       </c>
       <c r="AQ12" s="29">
         <f t="shared" si="8"/>
-        <v>1.3087111111111112</v>
+        <v>0.75315555555555525</v>
       </c>
       <c r="AS12" s="32">
         <f t="shared" si="11"/>
-        <v>4.5327528260839216</v>
+        <v>8.1526522033295041</v>
       </c>
       <c r="AT12" s="32">
         <f t="shared" si="9"/>
-        <v>4.1349845968459693</v>
+        <v>7.4372224953935113</v>
       </c>
       <c r="AU12" s="32">
         <f t="shared" si="9"/>
-        <v>2.4978049173657602</v>
+        <v>5.7857770931105259</v>
       </c>
       <c r="AV12" s="32">
         <f t="shared" si="9"/>
-        <v>6.2553315084562001E-3</v>
+        <v>6.32114204174823E-3</v>
       </c>
       <c r="AW12" s="32">
         <f t="shared" si="9"/>
@@ -2431,34 +2438,34 @@
       </c>
       <c r="AX12" s="32">
         <f t="shared" si="9"/>
-        <v>-0.26852037170507731</v>
+        <v>-0.2602071672182269</v>
       </c>
       <c r="AY12" s="32">
         <f t="shared" si="9"/>
-        <v>0.90478848282906865</v>
+        <v>0.94607698406182361</v>
       </c>
       <c r="AZ12" s="32">
         <f t="shared" si="9"/>
-        <v>0.18701037671106233</v>
+        <v>0.19156414547026174</v>
       </c>
       <c r="BA12" s="32">
         <f t="shared" si="9"/>
-        <v>1.854425845654737E-2</v>
+        <v>2.114757610513927E-2</v>
       </c>
       <c r="BB12" s="32">
         <f t="shared" si="9"/>
-        <v>0.58509123039754596</v>
+        <v>0.44476220577976178</v>
       </c>
       <c r="BC12" s="32">
         <f t="shared" si="9"/>
-        <v>2.0650716124375568</v>
+        <v>2.2129809211126434</v>
       </c>
       <c r="BD12" s="32">
         <f t="shared" si="9"/>
-        <v>0.17090802506217659</v>
+        <v>0.17690504898660106</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>31.5</v>
       </c>
@@ -2493,7 +2500,8 @@
         <v>26.1</v>
       </c>
       <c r="L13" s="15">
-        <v>1.194</v>
+        <f>1.194-0.5</f>
+        <v>0.69399999999999995</v>
       </c>
       <c r="M13" s="15">
         <v>79.3</v>
@@ -2512,51 +2520,51 @@
       </c>
       <c r="R13" s="21">
         <f t="shared" si="3"/>
-        <v>379.97525879412495</v>
+        <v>405.3438922788111</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="4"/>
-        <v>0.36390905120660499</v>
+        <v>0.21151832624571512</v>
       </c>
       <c r="T13" s="21">
         <f t="shared" si="2"/>
-        <v>0.25822791911425935</v>
+        <v>0.15009227459405025</v>
       </c>
       <c r="U13" s="21">
         <f t="shared" si="2"/>
-        <v>1.861001057708868</v>
+        <v>1.0816873819513857</v>
       </c>
       <c r="V13" s="21">
         <f t="shared" si="2"/>
-        <v>125.92724668945593</v>
+        <v>73.193893804424121</v>
       </c>
       <c r="W13" s="21">
         <f t="shared" si="2"/>
-        <v>4.6052713608677429</v>
+        <v>2.6767657658645003</v>
       </c>
       <c r="X13" s="21">
         <f t="shared" si="2"/>
-        <v>4.9084835435547447</v>
+        <v>2.853004672719424</v>
       </c>
       <c r="Y13" s="21">
         <f t="shared" si="2"/>
-        <v>113.96459764971807</v>
+        <v>44.160486191459711</v>
       </c>
       <c r="Z13" s="21">
         <f t="shared" si="2"/>
-        <v>283.37599999999998</v>
+        <v>164.70933333333332</v>
       </c>
       <c r="AA13" s="21">
         <f t="shared" si="5"/>
-        <v>12.46536</v>
+        <v>7.2453599999999998</v>
       </c>
       <c r="AC13" s="24">
         <f t="shared" si="6"/>
-        <v>2279.8515527647496</v>
+        <v>2432.0633536728665</v>
       </c>
       <c r="AD13" s="24">
         <f t="shared" si="7"/>
-        <v>2647.922447762784</v>
+        <v>1674.2513410576187</v>
       </c>
       <c r="AF13" s="29">
         <f t="shared" si="10"/>
@@ -2568,94 +2576,94 @@
       </c>
       <c r="AH13" s="29">
         <f t="shared" si="8"/>
-        <v>22.407913565456891</v>
+        <v>22.546761181353368</v>
       </c>
       <c r="AI13" s="29">
         <f t="shared" si="8"/>
-        <v>3.179687918509639E-2</v>
+        <v>1.9454992436835412E-2</v>
       </c>
       <c r="AJ13" s="29">
         <f t="shared" si="8"/>
-        <v>5.7383982025390967E-2</v>
+        <v>3.3353838798677836E-2</v>
       </c>
       <c r="AK13" s="29">
         <f t="shared" si="8"/>
-        <v>-0.17306208723023842</v>
+        <v>-8.8954361156370843E-2</v>
       </c>
       <c r="AL13" s="29">
         <f t="shared" si="8"/>
-        <v>13.204428681865004</v>
+        <v>7.9681005184333173</v>
       </c>
       <c r="AM13" s="29">
         <f t="shared" si="8"/>
-        <v>-1.0690011918244389</v>
+        <v>-0.5798409610768438</v>
       </c>
       <c r="AN13" s="29">
         <f t="shared" si="8"/>
-        <v>0.36301650615533759</v>
+        <v>0.22543535999073663</v>
       </c>
       <c r="AO13" s="29">
         <f t="shared" si="8"/>
-        <v>2.384578278661198</v>
+        <v>1.2273780811073149</v>
       </c>
       <c r="AP13" s="29">
         <f t="shared" si="8"/>
-        <v>16.262603174603182</v>
+        <v>10.379005291005292</v>
       </c>
       <c r="AQ13" s="29">
         <f t="shared" si="8"/>
-        <v>0.41408</v>
+        <v>0.28741333333333352</v>
       </c>
       <c r="AS13" s="32">
         <f t="shared" si="11"/>
-        <v>3.2113171446469355</v>
+        <v>5.612986889024997</v>
       </c>
       <c r="AT13" s="32">
         <f t="shared" si="9"/>
-        <v>2.9620237100149565</v>
+        <v>5.1772526662492053</v>
       </c>
       <c r="AU13" s="32">
         <f t="shared" si="9"/>
-        <v>1.9428242820554142</v>
+        <v>3.4168593084303782</v>
       </c>
       <c r="AV13" s="32">
         <f t="shared" si="9"/>
-        <v>2.7568719771223398E-3</v>
+        <v>2.9483157899512346E-3</v>
       </c>
       <c r="AW13" s="32">
         <f t="shared" si="9"/>
-        <v>4.9753402231890401E-3</v>
+        <v>5.0546228637663648E-3</v>
       </c>
       <c r="AX13" s="32">
         <f t="shared" si="9"/>
-        <v>-1.500493227055358E-2</v>
+        <v>-1.348062963446793E-2</v>
       </c>
       <c r="AY13" s="32">
         <f t="shared" si="9"/>
-        <v>1.1448582483530845</v>
+        <v>1.2075294632310276</v>
       </c>
       <c r="AZ13" s="32">
         <f t="shared" si="9"/>
-        <v>-9.2685178696169726E-2</v>
+        <v>-8.7872265525354126E-2</v>
       </c>
       <c r="BA13" s="32">
         <f t="shared" si="9"/>
-        <v>3.147447355530391E-2</v>
+        <v>3.4163705466962582E-2</v>
       </c>
       <c r="BB13" s="32">
         <f t="shared" si="9"/>
-        <v>0.20674912765580439</v>
+        <v>0.18600357664067887</v>
       </c>
       <c r="BC13" s="32">
         <f t="shared" si="9"/>
-        <v>1.4100099165750377</v>
+        <v>1.5728911374707202</v>
       </c>
       <c r="BD13" s="32">
         <f t="shared" si="9"/>
-        <v>3.5901811043829897E-2</v>
+        <v>4.3556185984671709E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45.75</v>
       </c>
@@ -2690,7 +2698,8 @@
         <v>31</v>
       </c>
       <c r="L14" s="15">
-        <v>1.3660000000000001</v>
+        <f>1.366-0.5</f>
+        <v>0.8660000000000001</v>
       </c>
       <c r="M14" s="15">
         <v>152.80000000000001</v>
@@ -2709,11 +2718,11 @@
       </c>
       <c r="R14" s="21">
         <f t="shared" si="3"/>
-        <v>689.93573563193979</v>
+        <v>748.11770973770456</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="4"/>
-        <v>0.44763267376642113</v>
+        <v>0.28378469654591565</v>
       </c>
       <c r="T14" s="21">
         <f t="shared" si="2"/>
@@ -2721,39 +2730,39 @@
       </c>
       <c r="U14" s="21">
         <f t="shared" si="2"/>
-        <v>23.641836518271965</v>
+        <v>14.988162829299794</v>
       </c>
       <c r="V14" s="21">
         <f t="shared" si="2"/>
-        <v>96.25177581237152</v>
+        <v>61.020525515017376</v>
       </c>
       <c r="W14" s="21">
         <f t="shared" si="2"/>
-        <v>6.5523969701735778</v>
+        <v>4.154008620915314</v>
       </c>
       <c r="X14" s="21">
         <f t="shared" si="2"/>
-        <v>13.586008449121902</v>
+        <v>8.6130917400728908</v>
       </c>
       <c r="Y14" s="21">
         <f t="shared" si="2"/>
-        <v>166.23742790860754</v>
+        <v>70.25944976518015</v>
       </c>
       <c r="Z14" s="21">
         <f t="shared" si="2"/>
-        <v>498.39485714285718</v>
+        <v>315.96628571428579</v>
       </c>
       <c r="AA14" s="21">
         <f t="shared" si="5"/>
-        <v>16.938400000000001</v>
+        <v>10.738400000000002</v>
       </c>
       <c r="AC14" s="24">
         <f t="shared" si="6"/>
-        <v>4139.614413791639</v>
+        <v>4488.7062584262276</v>
       </c>
       <c r="AD14" s="24">
         <f t="shared" si="7"/>
-        <v>4448.7776020800829</v>
+        <v>3152.8838134706043</v>
       </c>
       <c r="AF14" s="29">
         <f t="shared" si="10"/>
@@ -2765,94 +2774,94 @@
       </c>
       <c r="AH14" s="29">
         <f t="shared" si="8"/>
-        <v>21.751612409671218</v>
+        <v>24.054302979571471</v>
       </c>
       <c r="AI14" s="29">
         <f t="shared" si="8"/>
-        <v>5.8753419340221852E-3</v>
+        <v>5.0713242315930194E-3</v>
       </c>
       <c r="AJ14" s="29">
         <f t="shared" si="8"/>
-        <v>-1.8121257481702412E-2</v>
+        <v>-1.0532791199582473E-2</v>
       </c>
       <c r="AK14" s="29">
         <f t="shared" si="8"/>
-        <v>1.5284796814430244</v>
+        <v>0.97589301384901117</v>
       </c>
       <c r="AL14" s="29">
         <f t="shared" si="8"/>
-        <v>-2.0824891843568007</v>
+        <v>-0.85427145890573652</v>
       </c>
       <c r="AM14" s="29">
         <f t="shared" si="8"/>
-        <v>0.13664039363549718</v>
+        <v>0.10366616526672376</v>
       </c>
       <c r="AN14" s="29">
         <f t="shared" si="8"/>
-        <v>0.60894911618015135</v>
+        <v>0.40421663630550647</v>
       </c>
       <c r="AO14" s="29">
         <f t="shared" si="8"/>
-        <v>3.6682687900975068</v>
+        <v>1.83150621569968</v>
       </c>
       <c r="AP14" s="29">
         <f t="shared" si="8"/>
-        <v>15.089042606516294</v>
+        <v>10.614522974101927</v>
       </c>
       <c r="AQ14" s="29">
         <f t="shared" si="8"/>
-        <v>0.31389754385964919</v>
+        <v>0.2451256140350879</v>
       </c>
       <c r="AS14" s="32">
         <f t="shared" si="11"/>
-        <v>3.3022810456675935</v>
+        <v>5.3992868743443498</v>
       </c>
       <c r="AT14" s="32">
         <f t="shared" si="9"/>
-        <v>3.6209097693851295</v>
+        <v>5.9202503725948121</v>
       </c>
       <c r="AU14" s="32">
         <f t="shared" si="9"/>
-        <v>1.4795123079273682</v>
+        <v>2.6751138782514299</v>
       </c>
       <c r="AV14" s="32">
         <f t="shared" si="9"/>
-        <v>3.9963201536280968E-4</v>
+        <v>5.6398931386907058E-4</v>
       </c>
       <c r="AW14" s="32">
         <f t="shared" si="9"/>
-        <v>-1.2325809679920128E-3</v>
+        <v>-1.1713669665945798E-3</v>
       </c>
       <c r="AX14" s="32">
         <f t="shared" si="9"/>
-        <v>0.10396491342896448</v>
+        <v>0.10853047570130062</v>
       </c>
       <c r="AY14" s="32">
         <f t="shared" si="9"/>
-        <v>-0.14164781540570326</v>
+        <v>-9.5004766400990259E-2</v>
       </c>
       <c r="AZ14" s="32">
         <f t="shared" si="9"/>
-        <v>9.294076243004103E-3</v>
+        <v>1.1528864405076996E-2</v>
       </c>
       <c r="BA14" s="32">
         <f t="shared" si="9"/>
-        <v>4.141981271647921E-2</v>
+        <v>4.4953517652093489E-2</v>
       </c>
       <c r="BB14" s="32">
         <f t="shared" si="9"/>
-        <v>0.24951018441842177</v>
+        <v>0.20368445927878037</v>
       </c>
       <c r="BC14" s="32">
         <f t="shared" si="9"/>
-        <v>1.0263342243656113</v>
+        <v>1.1804564756315614</v>
       </c>
       <c r="BD14" s="32">
         <f t="shared" si="9"/>
-        <v>2.1350843828112403E-2</v>
+        <v>2.7260774613883619E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>50</v>
       </c>
@@ -2887,7 +2896,8 @@
         <v>31</v>
       </c>
       <c r="L15" s="15">
-        <v>1.401</v>
+        <f>1.401-0.5</f>
+        <v>0.90100000000000002</v>
       </c>
       <c r="M15" s="15">
         <v>163.30000000000001</v>
@@ -2906,11 +2916,11 @@
       </c>
       <c r="R15" s="21">
         <f t="shared" si="3"/>
-        <v>867.64180825616347</v>
+        <v>881.76758054954632</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="4"/>
-        <v>1.4393207097645315</v>
+        <v>0.92564451070509834</v>
       </c>
       <c r="T15" s="21">
         <f t="shared" si="2"/>
@@ -2918,39 +2928,39 @@
       </c>
       <c r="U15" s="21">
         <f t="shared" si="2"/>
-        <v>13.855318022559494</v>
+        <v>8.9105221544083566</v>
       </c>
       <c r="V15" s="21">
         <f t="shared" si="2"/>
-        <v>98.57891419709398</v>
+        <v>63.397288859087567</v>
       </c>
       <c r="W15" s="21">
         <f t="shared" si="2"/>
-        <v>3.1109309333746391</v>
+        <v>2.0006772098290866</v>
       </c>
       <c r="X15" s="21">
         <f t="shared" si="2"/>
-        <v>16.524999728509446</v>
+        <v>10.627426663374024</v>
       </c>
       <c r="Y15" s="21">
         <f t="shared" si="2"/>
-        <v>135.31013886843857</v>
+        <v>58.013055018064783</v>
       </c>
       <c r="Z15" s="21">
         <f t="shared" si="2"/>
-        <v>558.73214285714289</v>
+        <v>359.32738095238096</v>
       </c>
       <c r="AA15" s="21">
         <f t="shared" si="5"/>
-        <v>17.372399999999999</v>
+        <v>11.172400000000001</v>
       </c>
       <c r="AC15" s="24">
         <f t="shared" si="6"/>
-        <v>5205.8508495369806</v>
+        <v>5290.6054832972777</v>
       </c>
       <c r="AD15" s="24">
         <f t="shared" si="7"/>
-        <v>4827.2534176973322</v>
+        <v>3556.7909217325755</v>
       </c>
       <c r="AF15" s="29">
         <f t="shared" si="10"/>
@@ -2962,11 +2972,11 @@
       </c>
       <c r="AH15" s="29">
         <f t="shared" si="8"/>
-        <v>41.813193558640869</v>
+        <v>31.447028426315711</v>
       </c>
       <c r="AI15" s="29">
         <f t="shared" si="8"/>
-        <v>0.23333836141132008</v>
+        <v>0.15102583862569005</v>
       </c>
       <c r="AJ15" s="29">
         <f t="shared" si="8"/>
@@ -2974,47 +2984,47 @@
       </c>
       <c r="AK15" s="29">
         <f t="shared" si="8"/>
-        <v>-2.3027102342852874</v>
+        <v>-1.4300330999744559</v>
       </c>
       <c r="AL15" s="29">
         <f t="shared" si="8"/>
-        <v>0.54756197287587294</v>
+        <v>0.55923843389886851</v>
       </c>
       <c r="AM15" s="29">
         <f t="shared" si="8"/>
-        <v>-0.80975671454092679</v>
+        <v>-0.50666621437323001</v>
       </c>
       <c r="AN15" s="29">
         <f t="shared" si="8"/>
-        <v>0.69152735985589264</v>
+        <v>0.47396115842379605</v>
       </c>
       <c r="AO15" s="29">
         <f t="shared" si="8"/>
-        <v>-7.2770091859221111</v>
+        <v>-2.8815046463800864</v>
       </c>
       <c r="AP15" s="29">
         <f t="shared" si="8"/>
-        <v>14.197008403361345</v>
+        <v>10.202610644257689</v>
       </c>
       <c r="AQ15" s="29">
         <f t="shared" si="8"/>
-        <v>0.10211764705882294</v>
+        <v>0.10211764705882335</v>
       </c>
       <c r="AS15" s="32">
         <f t="shared" si="11"/>
-        <v>2.481273875777275</v>
+        <v>3.885503573444097</v>
       </c>
       <c r="AT15" s="32">
         <f t="shared" si="9"/>
-        <v>4.1177809108212697</v>
+        <v>6.4481606000240248</v>
       </c>
       <c r="AU15" s="32">
         <f t="shared" si="9"/>
-        <v>2.4373196520419733</v>
+        <v>2.870459173221946</v>
       </c>
       <c r="AV15" s="32">
         <f t="shared" si="9"/>
-        <v>1.3601452686111666E-2</v>
+        <v>1.3785515693237129E-2</v>
       </c>
       <c r="AW15" s="32">
         <f t="shared" si="9"/>
@@ -3022,34 +3032,34 @@
       </c>
       <c r="AX15" s="32">
         <f t="shared" si="9"/>
-        <v>-0.13422655457088073</v>
+        <v>-0.13053225806218446</v>
       </c>
       <c r="AY15" s="32">
         <f t="shared" si="9"/>
-        <v>3.1917761921953024E-2</v>
+        <v>5.104682931694584E-2</v>
       </c>
       <c r="AZ15" s="32">
         <f t="shared" si="9"/>
-        <v>-4.7201272750325075E-2</v>
+        <v>-4.6248079885100497E-2</v>
       </c>
       <c r="BA15" s="32">
         <f t="shared" si="9"/>
-        <v>4.0309602798879227E-2</v>
+        <v>4.3262788982948684E-2</v>
       </c>
       <c r="BB15" s="32">
         <f t="shared" si="9"/>
-        <v>-0.42418184279714322</v>
+        <v>-0.2630214000748568</v>
       </c>
       <c r="BC15" s="32">
         <f t="shared" si="9"/>
-        <v>0.82755333034271106</v>
+        <v>0.93128599998700989</v>
       </c>
       <c r="BD15" s="32">
         <f t="shared" si="9"/>
-        <v>5.9525074937817214E-3</v>
+        <v>9.3212157528546058E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>56.5</v>
       </c>
@@ -3084,7 +3094,8 @@
         <v>49</v>
       </c>
       <c r="L16" s="15">
-        <v>1.4490000000000001</v>
+        <f>1.449-0.5</f>
+        <v>0.94900000000000007</v>
       </c>
       <c r="M16" s="15">
         <v>182.2</v>
@@ -3103,11 +3114,11 @@
       </c>
       <c r="R16" s="21">
         <f t="shared" si="3"/>
-        <v>1005.2176034530333</v>
+        <v>1007.6346561684194</v>
       </c>
       <c r="S16" s="21">
         <f t="shared" si="4"/>
-        <v>7.0839881248787109E-2</v>
+        <v>4.6395477781296733E-2</v>
       </c>
       <c r="T16" s="21">
         <f t="shared" si="2"/>
@@ -3115,39 +3126,39 @@
       </c>
       <c r="U16" s="21">
         <f t="shared" si="2"/>
-        <v>9.8652452750953223</v>
+        <v>6.4610888654696073</v>
       </c>
       <c r="V16" s="21">
         <f t="shared" si="2"/>
-        <v>120.12032099732548</v>
+        <v>78.670934869883979</v>
       </c>
       <c r="W16" s="21">
         <f t="shared" si="2"/>
-        <v>2.0852283653633852</v>
+        <v>1.3656878666182555</v>
       </c>
       <c r="X16" s="21">
         <f t="shared" si="2"/>
-        <v>22.587157109144773</v>
+        <v>14.793107036976117</v>
       </c>
       <c r="Y16" s="21">
         <f t="shared" si="2"/>
-        <v>126.65575428191654</v>
+        <v>55.3008101281522</v>
       </c>
       <c r="Z16" s="21">
         <f t="shared" si="2"/>
-        <v>641.70000000000005</v>
+        <v>420.27142857142854</v>
       </c>
       <c r="AA16" s="21">
         <f t="shared" si="5"/>
-        <v>28.400400000000005</v>
+        <v>18.600400000000004</v>
       </c>
       <c r="AC16" s="24">
         <f t="shared" si="6"/>
-        <v>6031.3056207181999</v>
+        <v>6045.8079370105161</v>
       </c>
       <c r="AD16" s="24">
         <f t="shared" si="7"/>
-        <v>5914.9076411317956</v>
+        <v>4434.610607069947</v>
       </c>
       <c r="AF16" s="29">
         <f t="shared" si="10"/>
@@ -3159,11 +3170,11 @@
       </c>
       <c r="AH16" s="29">
         <f t="shared" si="8"/>
-        <v>21.165506953364595</v>
+        <v>19.364165479826625</v>
       </c>
       <c r="AI16" s="29">
         <f t="shared" si="8"/>
-        <v>-0.21053551207934529</v>
+        <v>-0.13526908198827717</v>
       </c>
       <c r="AJ16" s="29">
         <f t="shared" si="8"/>
@@ -3171,47 +3182,47 @@
       </c>
       <c r="AK16" s="29">
         <f t="shared" si="8"/>
-        <v>-0.61385734576371875</v>
+        <v>-0.37683589060596145</v>
       </c>
       <c r="AL16" s="29">
         <f t="shared" si="8"/>
-        <v>3.3140625846509999</v>
+        <v>2.3497916939686787</v>
       </c>
       <c r="AM16" s="29">
         <f t="shared" si="8"/>
-        <v>-0.15780039507865445</v>
+        <v>-9.7690668186281707E-2</v>
       </c>
       <c r="AN16" s="29">
         <f t="shared" si="8"/>
-        <v>0.93263959702081956</v>
+        <v>0.64087390363109131</v>
       </c>
       <c r="AO16" s="29">
         <f t="shared" si="8"/>
-        <v>-1.3314437825418504</v>
+        <v>-0.4172684446019358</v>
       </c>
       <c r="AP16" s="29">
         <f t="shared" si="8"/>
-        <v>12.764285714285716</v>
+        <v>9.3760073260073202</v>
       </c>
       <c r="AQ16" s="29">
         <f t="shared" si="8"/>
-        <v>1.6966153846153855</v>
+        <v>1.1427692307692312</v>
       </c>
       <c r="AS16" s="32">
         <f t="shared" si="11"/>
-        <v>2.396071981326565</v>
+        <v>3.6837288930454841</v>
       </c>
       <c r="AT16" s="32">
         <f t="shared" si="9"/>
-        <v>2.3729757383492056</v>
+        <v>3.6482206536271535</v>
       </c>
       <c r="AU16" s="32">
         <f t="shared" si="9"/>
-        <v>0.92480717602438978</v>
+        <v>1.300795724945361</v>
       </c>
       <c r="AV16" s="32">
         <f t="shared" si="9"/>
-        <v>-9.1991537366883942E-3</v>
+        <v>-9.0867558300379639E-3</v>
       </c>
       <c r="AW16" s="32">
         <f t="shared" si="9"/>
@@ -3219,34 +3230,34 @@
       </c>
       <c r="AX16" s="32">
         <f t="shared" si="9"/>
-        <v>-2.6821926810844811E-2</v>
+        <v>-2.5314104861213015E-2</v>
       </c>
       <c r="AY16" s="32">
         <f t="shared" si="9"/>
-        <v>0.14480488782206899</v>
+        <v>0.15784821675950386</v>
       </c>
       <c r="AZ16" s="32">
         <f t="shared" si="9"/>
-        <v>-6.8949417592393059E-3</v>
+        <v>-6.5624105348695248E-3</v>
       </c>
       <c r="BA16" s="32">
         <f t="shared" si="9"/>
-        <v>4.0750821318373334E-2</v>
+        <v>4.3050966226293209E-2</v>
       </c>
       <c r="BB16" s="32">
         <f t="shared" si="9"/>
-        <v>-5.8176199950269604E-2</v>
+        <v>-2.8030178189618428E-2</v>
       </c>
       <c r="BC16" s="32">
         <f t="shared" si="9"/>
-        <v>0.55772361377436885</v>
+        <v>0.62983712153424054</v>
       </c>
       <c r="BD16" s="32">
         <f t="shared" si="9"/>
-        <v>7.4132034073309275E-2</v>
+        <v>7.6765989814141164E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3272,13 +3283,13 @@
         <v>100</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="J19" s="12">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
